--- a/medicine/Psychotrope/Moscato_d'Asti_(DOCG)/Moscato_d'Asti_(DOCG).xlsx
+++ b/medicine/Psychotrope/Moscato_d'Asti_(DOCG)/Moscato_d'Asti_(DOCG).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Moscato_d%27Asti_(DOCG)</t>
+          <t>Moscato_d'Asti_(DOCG)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Moscato d'Asti est un vin blanc italien de la région Piémont doté d'une appellation DOCG depuis le 14 novembre 1977. Seuls ont droit à la DOCG les vins blancs récoltés à l'intérieur de l'aire de production définie par le décret.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Moscato_d%27Asti_(DOCG)</t>
+          <t>Moscato_d'Asti_(DOCG)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Aire de l'appellation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les vignobles autorisés se situent en province de Coni, province d'Alexandrie et province d'Asti dans les communes de (Province d’Asti) Bubbio, Calamandrana, Calosso, Canelli, Cassinasco, Castagnole delle Lanze, Castel Boglione, Castelletto Molina, Castelnuovo Belbo, Castel Rocchero, Cessole, Coazzolo, Costigliole d'Asti, Fontanile, Incisa Scapaccino, Loazzolo, Maranzana, Mombaruzzo, Monastero Bormida, Montabone, Nizza Monferrato, Quaranti, San Marzano Oliveto, Moasca, Sessame, Vesime, Rocchetta Palafea et San Giorgio Scarampi; (Province de Cuneo) Camo, Castiglione Tinella, Cossano Belbo, Mango, Neive, Neviglie, Rocchetta Belbo, Serralunga d'Alba, Santo Stefano Belbo, Santa Vittoria d'Alba, Treiso, Trezzo Tinella, Castino, Perletto et les hameaux Como et San Rocco Seno d'Elvio faisant partie d'Alba; (Province d’Alessandria) Acqui Terme, Alice Bel Colle, Bistagno, Cassine, Grognardo, Ricaldone, Strevi, Terzo et Visone.
 La surface de vignes de Muscat blanc est de 9 935 hectares, partagée entre plus de 6 800 viticulteurs. La zone de production est située sur les pentes des collines à droite du Tanaro dans le Monferrato et la  Langhe. Ce vin typique piémontais était déjà produit dans le Monferrat et les Langhe en 1200.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Moscato_d%27Asti_(DOCG)</t>
+          <t>Moscato_d'Asti_(DOCG)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Caractéristiques organoleptiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>couleur : jaune paille plus ou moins intense
 odeur : caractéristique au muscat, prononcé, délicat.
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Moscato_d%27Asti_(DOCG)</t>
+          <t>Moscato_d'Asti_(DOCG)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Province, saison, volume en hectolitres : 
 </t>
